--- a/input/NuevaDefDefunciones/Defunciones_2020-06-09.xlsx
+++ b/input/NuevaDefDefunciones/Defunciones_2020-06-09.xlsx
@@ -8,17 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darancibia/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7524D31-1A7D-D346-9C0D-4849785E406B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD449E0A-055E-B143-993F-1CF717CF130F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -27,20 +35,20 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>TOTALES</t>
-  </si>
-  <si>
     <t>Fecha Defunción</t>
   </si>
   <si>
     <t>N° Fallecidos</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -51,6 +59,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -104,7 +120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -112,6 +128,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,18 +413,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1016,9 +1035,9 @@
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B78" s="3"/>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>0</v>
+    <row r="80" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A80" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="B80" s="2">
         <v>2283</v>
